--- a/Reprints1and2.xlsx
+++ b/Reprints1and2.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlogie\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178BF528-6FAE-4C6A-8DE2-890D5669F0CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="reprint_list" sheetId="1" r:id="rId3"/>
+    <sheet name="reprint_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="187">
   <si>
     <t>CardsOld</t>
   </si>
@@ -475,9 +484,6 @@
     <t>Maz's Goggles</t>
   </si>
   <si>
-    <t>Handcrafted Lightbow</t>
-  </si>
-  <si>
     <t>Rex's Blaster Pistol</t>
   </si>
   <si>
@@ -572,102 +578,403 @@
   </si>
   <si>
     <t>On the Hunt</t>
+  </si>
+  <si>
+    <t>Handcrafted Light Bow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -715,7 +1022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -739,7 +1046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -763,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -787,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -813,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -835,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -861,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -885,7 +1192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
@@ -897,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -923,7 +1230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -949,7 +1256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -971,7 +1278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -992,7 +1299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1016,7 +1323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1038,7 +1345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1060,7 +1367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1084,7 +1391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="E19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1096,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -1118,7 +1425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1140,7 +1447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1162,7 +1469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1184,7 +1491,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1208,7 +1515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1230,7 +1537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +1559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1274,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -1296,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -1318,7 +1625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -1340,7 +1647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -1362,7 +1669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -1386,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -1408,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -1430,7 +1737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -1452,7 +1759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -1474,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -1496,7 +1803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="E38" s="5" t="s">
         <v>77</v>
       </c>
@@ -1508,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -1530,7 +1837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1552,7 +1859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -1574,7 +1881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
@@ -1596,7 +1903,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -1618,7 +1925,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -1640,7 +1947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1662,7 +1969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -1684,7 +1991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -1706,7 +2013,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -1728,7 +2035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -1750,7 +2057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
@@ -1772,7 +2079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>96</v>
       </c>
@@ -1794,7 +2101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
@@ -1815,7 +2122,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
@@ -1837,7 +2144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
         <v>97</v>
       </c>
@@ -1849,7 +2156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
@@ -1861,7 +2168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
@@ -1873,7 +2180,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
         <v>103</v>
       </c>
@@ -1895,7 +2202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>105</v>
       </c>
@@ -1917,7 +2224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
         <v>106</v>
       </c>
@@ -1939,7 +2246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>108</v>
       </c>
@@ -1961,7 +2268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
@@ -1983,7 +2290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -2005,7 +2312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
         <v>113</v>
       </c>
@@ -2027,7 +2334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
@@ -2049,7 +2356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>116</v>
       </c>
@@ -2071,7 +2378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
         <v>118</v>
       </c>
@@ -2085,9 +2392,7 @@
       <c r="E66" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
         <v>59</v>
       </c>
@@ -2095,7 +2400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
         <v>120</v>
       </c>
@@ -2119,7 +2424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8">
       <c r="E68" s="8" t="s">
         <v>120</v>
       </c>
@@ -2131,7 +2436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
         <v>121</v>
       </c>
@@ -2153,7 +2458,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
@@ -2175,7 +2480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
         <v>125</v>
       </c>
@@ -2197,7 +2502,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8">
       <c r="E72" s="11" t="s">
         <v>125</v>
       </c>
@@ -2209,7 +2514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
         <v>127</v>
       </c>
@@ -2233,7 +2538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>130</v>
       </c>
@@ -2255,7 +2560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>132</v>
       </c>
@@ -2281,7 +2586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>133</v>
       </c>
@@ -2307,7 +2612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>135</v>
       </c>
@@ -2329,7 +2634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8">
       <c r="A78" s="9" t="s">
         <v>137</v>
       </c>
@@ -2351,7 +2656,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
         <v>138</v>
       </c>
@@ -2373,7 +2678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
         <v>139</v>
       </c>
@@ -2397,7 +2702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>140</v>
       </c>
@@ -2409,7 +2714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>141</v>
       </c>
@@ -2421,7 +2726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>142</v>
       </c>
@@ -2443,7 +2748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>144</v>
       </c>
@@ -2467,7 +2772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>146</v>
       </c>
@@ -2489,7 +2794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>148</v>
       </c>
@@ -2501,7 +2806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>149</v>
       </c>
@@ -2513,7 +2818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>150</v>
       </c>
@@ -2535,7 +2840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>153</v>
       </c>
@@ -2547,7 +2852,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -2557,9 +2862,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="1" t="s">
@@ -2569,7 +2874,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
@@ -2579,9 +2884,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8">
       <c r="E91" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
@@ -2591,9 +2896,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8">
       <c r="E92" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -2603,9 +2908,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="2" t="s">
@@ -2619,9 +2924,9 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="1" t="s">
@@ -2631,7 +2936,7 @@
         <v>48</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
@@ -2641,9 +2946,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="1" t="s">
@@ -2653,7 +2958,7 @@
         <v>48</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2" t="s">
@@ -2663,9 +2968,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="1" t="s">
@@ -2675,7 +2980,7 @@
         <v>48</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
@@ -2685,9 +2990,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="2" t="s">
@@ -2697,7 +3002,7 @@
         <v>48</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
@@ -2707,9 +3012,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="1" t="s">
@@ -2719,7 +3024,7 @@
         <v>48</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
@@ -2729,9 +3034,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="1" t="s">
@@ -2741,7 +3046,7 @@
         <v>48</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
@@ -2751,9 +3056,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="1" t="s">
@@ -2763,7 +3068,7 @@
         <v>48</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
@@ -2773,9 +3078,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="1" t="s">
@@ -2785,7 +3090,7 @@
         <v>48</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
@@ -2795,9 +3100,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="2" t="s">
@@ -2807,7 +3112,7 @@
         <v>48</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
@@ -2817,9 +3122,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="1" t="s">
@@ -2829,9 +3134,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="2" t="s">
@@ -2841,9 +3146,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="1" t="s">
@@ -2853,9 +3158,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="2" t="s">
@@ -2865,21 +3170,21 @@
         <v>30</v>
       </c>
       <c r="E106" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="2" t="s">
@@ -2889,7 +3194,7 @@
         <v>30</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
@@ -2899,9 +3204,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="2" t="s">
@@ -2911,7 +3216,7 @@
         <v>30</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="2" t="s">
@@ -2921,9 +3226,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="1" t="s">
@@ -2933,7 +3238,7 @@
         <v>30</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1" t="s">
@@ -2943,13 +3248,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8">
       <c r="A110" s="1"/>
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
@@ -2959,13 +3264,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
@@ -2975,13 +3280,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:8">
       <c r="A112" s="1"/>
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
@@ -2991,7 +3296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
@@ -3001,7 +3306,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8">
       <c r="A114" s="1"/>
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
@@ -3011,7 +3316,7 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8">
       <c r="A115" s="1"/>
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
@@ -3021,7 +3326,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3031,13 +3336,13 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8">
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>